--- a/output/ejecucion_10/gridsearch_results/gs_ci_Regression Forest_st.xlsx
+++ b/output/ejecucion_10/gridsearch_results/gs_ci_Regression Forest_st.xlsx
@@ -501,16 +501,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>72.61641774177551</v>
+        <v>70.24105944633484</v>
       </c>
       <c r="C2">
-        <v>1.091990655055248</v>
+        <v>0.5525355635050908</v>
       </c>
       <c r="D2">
-        <v>0.1308047771453857</v>
+        <v>0.1173748016357422</v>
       </c>
       <c r="E2">
-        <v>0.005333070491786993</v>
+        <v>0.00168116612963281</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -522,25 +522,25 @@
         <v>15</v>
       </c>
       <c r="I2">
-        <v>0.233438867843602</v>
+        <v>0.2476311962724235</v>
       </c>
       <c r="J2">
-        <v>0.31302915437399</v>
+        <v>0.3244994567394095</v>
       </c>
       <c r="K2">
-        <v>0.3249386008064941</v>
+        <v>0.3054001158514633</v>
       </c>
       <c r="L2">
-        <v>0.3271252920027086</v>
+        <v>0.2651689528906704</v>
       </c>
       <c r="M2">
-        <v>0.2732123581095233</v>
+        <v>0.3260464522409765</v>
       </c>
       <c r="N2">
-        <v>0.2943488546272636</v>
+        <v>0.2937492347989886</v>
       </c>
       <c r="O2">
-        <v>0.03609919387463947</v>
+        <v>0.03183751065857941</v>
       </c>
       <c r="P2">
         <v>9</v>
@@ -551,16 +551,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>143.204327583313</v>
+        <v>138.2511871337891</v>
       </c>
       <c r="C3">
-        <v>1.507628937961044</v>
+        <v>1.018534991408768</v>
       </c>
       <c r="D3">
-        <v>0.169019079208374</v>
+        <v>0.1625276088714599</v>
       </c>
       <c r="E3">
-        <v>0.004637430269566257</v>
+        <v>0.004836266030265509</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -572,25 +572,25 @@
         <v>16</v>
       </c>
       <c r="I3">
-        <v>0.2334593963495775</v>
+        <v>0.2521746901250133</v>
       </c>
       <c r="J3">
-        <v>0.3168233794758322</v>
+        <v>0.32743491776317</v>
       </c>
       <c r="K3">
-        <v>0.3241046561663061</v>
+        <v>0.3042687693698728</v>
       </c>
       <c r="L3">
-        <v>0.3265825876975074</v>
+        <v>0.2641181588045769</v>
       </c>
       <c r="M3">
-        <v>0.2767904290366114</v>
+        <v>0.3275693823334888</v>
       </c>
       <c r="N3">
-        <v>0.2955520897451669</v>
+        <v>0.2951131836792243</v>
       </c>
       <c r="O3">
-        <v>0.03588345330335782</v>
+        <v>0.03157951826834038</v>
       </c>
       <c r="P3">
         <v>8</v>
@@ -601,16 +601,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>285.7548494815827</v>
+        <v>277.7080893516541</v>
       </c>
       <c r="C4">
-        <v>2.726332630304584</v>
+        <v>2.349744166425517</v>
       </c>
       <c r="D4">
-        <v>0.2527748107910156</v>
+        <v>0.2394290447235107</v>
       </c>
       <c r="E4">
-        <v>0.005133622794171657</v>
+        <v>0.00317530593100719</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -622,28 +622,28 @@
         <v>17</v>
       </c>
       <c r="I4">
-        <v>0.2337487518393109</v>
+        <v>0.2548912347041591</v>
       </c>
       <c r="J4">
-        <v>0.3197300233409316</v>
+        <v>0.3272624359604713</v>
       </c>
       <c r="K4">
-        <v>0.3264519069308049</v>
+        <v>0.3071761553114584</v>
       </c>
       <c r="L4">
-        <v>0.328882382931446</v>
+        <v>0.2653496365446767</v>
       </c>
       <c r="M4">
-        <v>0.2738044067667558</v>
+        <v>0.328737381509847</v>
       </c>
       <c r="N4">
-        <v>0.2965234943618498</v>
+        <v>0.2966833688061225</v>
       </c>
       <c r="O4">
-        <v>0.03725097522357961</v>
+        <v>0.03098716798068429</v>
       </c>
       <c r="P4">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -651,16 +651,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>74.91800894737244</v>
+        <v>72.17436633110046</v>
       </c>
       <c r="C5">
-        <v>1.01280687811107</v>
+        <v>0.6233006156671886</v>
       </c>
       <c r="D5">
-        <v>0.1307797908782959</v>
+        <v>0.1202338218688965</v>
       </c>
       <c r="E5">
-        <v>0.003683817167956661</v>
+        <v>0.002160428500968268</v>
       </c>
       <c r="F5">
         <v>20</v>
@@ -672,25 +672,25 @@
         <v>18</v>
       </c>
       <c r="I5">
-        <v>0.235625815920902</v>
+        <v>0.2507100458479313</v>
       </c>
       <c r="J5">
-        <v>0.3146828200309598</v>
+        <v>0.3280120113504169</v>
       </c>
       <c r="K5">
-        <v>0.3244981801551219</v>
+        <v>0.3071630937574459</v>
       </c>
       <c r="L5">
-        <v>0.3291510043027207</v>
+        <v>0.2672907832964337</v>
       </c>
       <c r="M5">
-        <v>0.2760090492241072</v>
+        <v>0.3283198330120609</v>
       </c>
       <c r="N5">
-        <v>0.2959933739267623</v>
+        <v>0.2962991534528577</v>
       </c>
       <c r="O5">
-        <v>0.035510176342448</v>
+        <v>0.0318399332466363</v>
       </c>
       <c r="P5">
         <v>6</v>
@@ -701,16 +701,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>147.6523054122925</v>
+        <v>141.7456127643585</v>
       </c>
       <c r="C6">
-        <v>1.699264276350146</v>
+        <v>0.8864143849663222</v>
       </c>
       <c r="D6">
-        <v>0.1763208389282226</v>
+        <v>0.1563721179962158</v>
       </c>
       <c r="E6">
-        <v>0.009951171370787977</v>
+        <v>0.002898339503969565</v>
       </c>
       <c r="F6">
         <v>20</v>
@@ -722,25 +722,25 @@
         <v>19</v>
       </c>
       <c r="I6">
-        <v>0.2352054220528972</v>
+        <v>0.2540267825972629</v>
       </c>
       <c r="J6">
-        <v>0.3165903835201803</v>
+        <v>0.3301737073387756</v>
       </c>
       <c r="K6">
-        <v>0.3241055813969665</v>
+        <v>0.3067692362048525</v>
       </c>
       <c r="L6">
-        <v>0.3283440527988399</v>
+        <v>0.2659285467958792</v>
       </c>
       <c r="M6">
-        <v>0.2780162922184848</v>
+        <v>0.3296348679984453</v>
       </c>
       <c r="N6">
-        <v>0.2964523463974738</v>
+        <v>0.2973066281870431</v>
       </c>
       <c r="O6">
-        <v>0.0354355660816771</v>
+        <v>0.03185162462994383</v>
       </c>
       <c r="P6">
         <v>4</v>
@@ -751,16 +751,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>293.5610815048218</v>
+        <v>281.8091923713684</v>
       </c>
       <c r="C7">
-        <v>1.85467025115962</v>
+        <v>1.784549781984955</v>
       </c>
       <c r="D7">
-        <v>0.2531725406646729</v>
+        <v>0.2366896629333496</v>
       </c>
       <c r="E7">
-        <v>0.008221205585111708</v>
+        <v>0.009443261071011715</v>
       </c>
       <c r="F7">
         <v>20</v>
@@ -772,25 +772,25 @@
         <v>20</v>
       </c>
       <c r="I7">
-        <v>0.2347218341476098</v>
+        <v>0.2572014907949539</v>
       </c>
       <c r="J7">
-        <v>0.3194887636736399</v>
+        <v>0.3292561808277784</v>
       </c>
       <c r="K7">
-        <v>0.325997098524249</v>
+        <v>0.3094643091166853</v>
       </c>
       <c r="L7">
-        <v>0.3309758297816919</v>
+        <v>0.2670531526998612</v>
       </c>
       <c r="M7">
-        <v>0.2759759943972711</v>
+        <v>0.3299348410228553</v>
       </c>
       <c r="N7">
-        <v>0.2974319041048923</v>
+        <v>0.2985819948924268</v>
       </c>
       <c r="O7">
-        <v>0.03693393905743229</v>
+        <v>0.03081799933647551</v>
       </c>
       <c r="P7">
         <v>1</v>
@@ -801,16 +801,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>75.09066286087037</v>
+        <v>71.87383613586425</v>
       </c>
       <c r="C8">
-        <v>1.086711475475834</v>
+        <v>0.2945831072046935</v>
       </c>
       <c r="D8">
-        <v>0.1304376125335693</v>
+        <v>0.118644905090332</v>
       </c>
       <c r="E8">
-        <v>0.003840167005467225</v>
+        <v>0.002072671819103367</v>
       </c>
       <c r="F8">
         <v>30</v>
@@ -822,25 +822,25 @@
         <v>21</v>
       </c>
       <c r="I8">
-        <v>0.235625815920902</v>
+        <v>0.2507100458479312</v>
       </c>
       <c r="J8">
-        <v>0.3146828200309598</v>
+        <v>0.328012011350417</v>
       </c>
       <c r="K8">
-        <v>0.3244981801551219</v>
+        <v>0.3071630937574459</v>
       </c>
       <c r="L8">
-        <v>0.3291510043027207</v>
+        <v>0.2672907832964337</v>
       </c>
       <c r="M8">
-        <v>0.2760090492241073</v>
+        <v>0.3283198330120609</v>
       </c>
       <c r="N8">
-        <v>0.2959933739267623</v>
+        <v>0.2962991534528577</v>
       </c>
       <c r="O8">
-        <v>0.03551017634244798</v>
+        <v>0.03183993324663635</v>
       </c>
       <c r="P8">
         <v>6</v>
@@ -851,16 +851,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>147.9305638313294</v>
+        <v>141.9418642520905</v>
       </c>
       <c r="C9">
-        <v>1.887002767114622</v>
+        <v>1.161171484504907</v>
       </c>
       <c r="D9">
-        <v>0.1739377021789551</v>
+        <v>0.1586851596832276</v>
       </c>
       <c r="E9">
-        <v>0.002700832475917082</v>
+        <v>0.004218673078155091</v>
       </c>
       <c r="F9">
         <v>30</v>
@@ -872,28 +872,28 @@
         <v>22</v>
       </c>
       <c r="I9">
-        <v>0.2352054220528972</v>
+        <v>0.254026782597263</v>
       </c>
       <c r="J9">
-        <v>0.3165903835201803</v>
+        <v>0.3301737073387756</v>
       </c>
       <c r="K9">
-        <v>0.3241055813969667</v>
+        <v>0.3067692362048525</v>
       </c>
       <c r="L9">
-        <v>0.3283440527988398</v>
+        <v>0.2659285467958792</v>
       </c>
       <c r="M9">
-        <v>0.2780162922184848</v>
+        <v>0.3296348679984453</v>
       </c>
       <c r="N9">
-        <v>0.2964523463974738</v>
+        <v>0.2973066281870431</v>
       </c>
       <c r="O9">
-        <v>0.0354355660816771</v>
+        <v>0.03185162462994379</v>
       </c>
       <c r="P9">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -901,16 +901,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>293.7543703079224</v>
+        <v>283.1754945755005</v>
       </c>
       <c r="C10">
-        <v>3.341019154442961</v>
+        <v>2.263047002889479</v>
       </c>
       <c r="D10">
-        <v>0.2540439128875732</v>
+        <v>0.2331614971160889</v>
       </c>
       <c r="E10">
-        <v>0.002628242940504497</v>
+        <v>0.002628638532042247</v>
       </c>
       <c r="F10">
         <v>30</v>
@@ -922,25 +922,25 @@
         <v>23</v>
       </c>
       <c r="I10">
-        <v>0.2347218341476099</v>
+        <v>0.2572014907949539</v>
       </c>
       <c r="J10">
-        <v>0.3194887636736399</v>
+        <v>0.3292561808277784</v>
       </c>
       <c r="K10">
-        <v>0.325997098524249</v>
+        <v>0.3094643091166853</v>
       </c>
       <c r="L10">
-        <v>0.3309758297816919</v>
+        <v>0.2670531526998612</v>
       </c>
       <c r="M10">
-        <v>0.2759759943972708</v>
+        <v>0.3299348410228553</v>
       </c>
       <c r="N10">
-        <v>0.2974319041048923</v>
+        <v>0.2985819948924268</v>
       </c>
       <c r="O10">
-        <v>0.03693393905743227</v>
+        <v>0.03081799933647551</v>
       </c>
       <c r="P10">
         <v>1</v>
